--- a/gantt.xlsx
+++ b/gantt.xlsx
@@ -458,6 +458,234 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="sv-SE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Uppstart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Förberedelse inför intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Genomförande av intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sammanställning av intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Utvärdera ekonomiska aspekter av testning</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Analysera testbarhet hos existerande Javaskript-kod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Analysera testverktygens användbarhet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Praktisk redogörelse för testning av Javascript</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reservtid, färdigställ rapport och presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad1!$B$3:$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Uppstart</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Förberedelse inför intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Genomförande av intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sammanställning av intervjuer</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Utvärdera ekonomiska aspekter av testning</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Analysera testbarhet hos existerande Javaskript-kod</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Analysera testverktygens användbarhet</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Praktisk redogörelse för testning av Javascript</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Reservtid, färdigställ rapport och presentation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:overlap val="100"/>
+        <c:axId val="111495040"/>
+        <c:axId val="111659648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="111495040"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111659648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="111659648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE"/>
+                  <a:t>Veckoplanering</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="111495040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -485,6 +713,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagram 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -780,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
